--- a/TD_Tarasevich(Task).xlsx
+++ b/TD_Tarasevich(Task).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="429">
   <si>
     <t>ID</t>
   </si>
@@ -1212,12 +1212,6 @@
     <t>Не появляется окно с сообщением</t>
   </si>
   <si>
-    <t>G_1.2.1</t>
-  </si>
-  <si>
-    <t>G_1.2.2</t>
-  </si>
-  <si>
     <t>Однотипность формата даты</t>
   </si>
   <si>
@@ -1385,6 +1379,72 @@
   </si>
   <si>
     <t>Сдача до 23.59 07.07.2022</t>
+  </si>
+  <si>
+    <t>BF_1.3</t>
+  </si>
+  <si>
+    <t>BF_1.4</t>
+  </si>
+  <si>
+    <t>BF_1.5</t>
+  </si>
+  <si>
+    <t>BF_1.6</t>
+  </si>
+  <si>
+    <t>BF_4.2</t>
+  </si>
+  <si>
+    <t>BF_7.2</t>
+  </si>
+  <si>
+    <t>BU_2.2</t>
+  </si>
+  <si>
+    <t>BU_3.2</t>
+  </si>
+  <si>
+    <t>BU_4.2</t>
+  </si>
+  <si>
+    <t>BU_16</t>
+  </si>
+  <si>
+    <t>BU_17</t>
+  </si>
+  <si>
+    <t>BU_18</t>
+  </si>
+  <si>
+    <t>BG_1.1</t>
+  </si>
+  <si>
+    <t>BG_1.2.1</t>
+  </si>
+  <si>
+    <t>BG_1.2.2</t>
+  </si>
+  <si>
+    <t>BG_2</t>
+  </si>
+  <si>
+    <t>BG_5</t>
+  </si>
+  <si>
+    <t>BG_6.1</t>
+  </si>
+  <si>
+    <t>BG_7.1</t>
+  </si>
+  <si>
+    <t>BG_7.2</t>
+  </si>
+  <si>
+    <t>BG_7.3</t>
+  </si>
+  <si>
+    <t>BG_7.4</t>
   </si>
 </sst>
 </file>
@@ -1577,27 +1637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1637,14 +1676,35 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3070,7 +3130,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
@@ -3099,13 +3159,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3120,7 +3180,7 @@
       <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3137,7 +3197,7 @@
       <c r="D4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3154,7 +3214,7 @@
       <c r="D5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3237,7 +3297,7 @@
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3254,7 +3314,7 @@
       <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3271,7 +3331,7 @@
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3288,7 +3348,7 @@
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3305,7 +3365,7 @@
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3339,7 +3399,7 @@
       <c r="D16" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3356,7 +3416,7 @@
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3373,7 +3433,7 @@
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3388,7 +3448,7 @@
       <c r="D19" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3405,7 +3465,7 @@
       <c r="D20" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3427,13 +3487,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -3446,7 +3506,7 @@
       <c r="D23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3463,7 +3523,7 @@
       <c r="D24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3478,7 +3538,7 @@
       <c r="D25" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3495,7 +3555,7 @@
       <c r="D26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3510,7 +3570,7 @@
       <c r="D27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3527,7 +3587,7 @@
       <c r="D28" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="40" t="s">
+      <c r="E28" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3542,7 +3602,7 @@
       <c r="D29" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="39" t="s">
+      <c r="E29" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3559,7 +3619,7 @@
       <c r="D30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="40" t="s">
+      <c r="E30" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3574,7 +3634,7 @@
       <c r="D31" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3589,7 +3649,7 @@
       <c r="D32" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3604,7 +3664,7 @@
       <c r="D33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3619,7 +3679,7 @@
       <c r="D34" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3634,7 +3694,7 @@
       <c r="D35" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3649,7 +3709,7 @@
       <c r="D36" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3664,7 +3724,7 @@
       <c r="D37" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3679,7 +3739,7 @@
       <c r="D38" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E38" s="39" t="s">
+      <c r="E38" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3694,7 +3754,7 @@
       <c r="D39" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3709,7 +3769,7 @@
       <c r="D40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3726,7 +3786,7 @@
       <c r="D41" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3743,7 +3803,7 @@
       <c r="D42" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3760,7 +3820,7 @@
       <c r="D43" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3775,7 +3835,7 @@
       <c r="D44" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3792,7 +3852,7 @@
       <c r="D45" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E45" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3809,18 +3869,18 @@
       <c r="D46" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="40" t="s">
+      <c r="E46" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
@@ -3835,7 +3895,7 @@
       <c r="D48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="40" t="s">
+      <c r="E48" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3852,7 +3912,7 @@
       <c r="D49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3861,12 +3921,12 @@
         <v>134</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3883,7 +3943,7 @@
       <c r="D51" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3900,7 +3960,7 @@
       <c r="D52" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3914,7 +3974,7 @@
       <c r="D53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="39" t="s">
+      <c r="E53" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3956,7 +4016,7 @@
       <c r="D56" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3968,9 +4028,9 @@
         <v>338</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E57" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="E57" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4058,9 +4118,9 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,19 +4173,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4153,7 +4213,7 @@
       <c r="I3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4185,7 +4245,7 @@
       <c r="I4" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -4220,7 +4280,7 @@
       <c r="I5" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -4387,7 +4447,7 @@
       <c r="I10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4419,7 +4479,7 @@
       <c r="I11" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="38" t="s">
+      <c r="J11" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="5" t="s">
@@ -4454,7 +4514,7 @@
       <c r="I12" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="38" t="s">
+      <c r="J12" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="5" t="s">
@@ -4489,7 +4549,7 @@
       <c r="I13" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -4524,7 +4584,7 @@
       <c r="I14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4588,7 +4648,7 @@
       <c r="I16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="38" t="s">
+      <c r="J16" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4620,7 +4680,7 @@
       <c r="I17" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4652,7 +4712,7 @@
       <c r="I18" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4684,7 +4744,7 @@
       <c r="I19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J19" s="38" t="s">
+      <c r="J19" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4716,7 +4776,7 @@
       <c r="I20" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4753,19 +4813,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
@@ -4783,7 +4843,7 @@
       <c r="E23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="F23" s="22" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="11" t="s">
@@ -4795,7 +4855,7 @@
       <c r="I23" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="J23" s="39" t="s">
+      <c r="J23" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4815,7 +4875,7 @@
       <c r="E24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="22" t="s">
         <v>210</v>
       </c>
       <c r="H24" s="4" t="s">
@@ -4824,7 +4884,7 @@
       <c r="I24" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4844,7 +4904,7 @@
       <c r="E25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="22" t="s">
         <v>70</v>
       </c>
       <c r="G25" s="11" t="s">
@@ -4856,7 +4916,7 @@
       <c r="I25" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4876,7 +4936,7 @@
       <c r="E26" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F26" s="22" t="s">
         <v>211</v>
       </c>
       <c r="H26" s="19" t="s">
@@ -4905,7 +4965,7 @@
       <c r="E27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="29" t="s">
+      <c r="F27" s="22" t="s">
         <v>71</v>
       </c>
       <c r="G27" s="11" t="s">
@@ -4917,7 +4977,7 @@
       <c r="I27" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4937,7 +4997,7 @@
       <c r="E28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="22" t="s">
         <v>212</v>
       </c>
       <c r="H28" s="19" t="s">
@@ -4966,7 +5026,7 @@
       <c r="E29" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="22" t="s">
         <v>72</v>
       </c>
       <c r="G29" s="11" t="s">
@@ -4978,7 +5038,7 @@
       <c r="I29" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4998,7 +5058,7 @@
       <c r="E30" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="22" t="s">
         <v>213</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -5027,7 +5087,7 @@
       <c r="E31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="22" t="s">
         <v>233</v>
       </c>
       <c r="G31" s="11" t="s">
@@ -5039,7 +5099,7 @@
       <c r="I31" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5059,7 +5119,7 @@
       <c r="E32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="22" t="s">
         <v>232</v>
       </c>
       <c r="G32" s="11" t="s">
@@ -5071,7 +5131,7 @@
       <c r="I32" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5091,7 +5151,7 @@
       <c r="E33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="22" t="s">
         <v>238</v>
       </c>
       <c r="G33" s="11" t="s">
@@ -5103,7 +5163,7 @@
       <c r="I33" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5123,7 +5183,7 @@
       <c r="E34" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="22" t="s">
         <v>238</v>
       </c>
       <c r="G34" s="11" t="s">
@@ -5135,7 +5195,7 @@
       <c r="I34" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="31" t="s">
         <v>45</v>
       </c>
       <c r="K34" s="5" t="s">
@@ -5158,7 +5218,7 @@
       <c r="E35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="F35" s="22" t="s">
         <v>238</v>
       </c>
       <c r="G35" s="11" t="s">
@@ -5170,7 +5230,7 @@
       <c r="I35" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5190,7 +5250,7 @@
       <c r="E36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="22" t="s">
         <v>238</v>
       </c>
       <c r="G36" s="11" t="s">
@@ -5202,7 +5262,7 @@
       <c r="I36" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5222,7 +5282,7 @@
       <c r="E37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="22" t="s">
         <v>252</v>
       </c>
       <c r="G37" s="11" t="s">
@@ -5234,7 +5294,7 @@
       <c r="I37" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5266,7 +5326,7 @@
       <c r="I38" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="J38" s="38" t="s">
+      <c r="J38" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5298,7 +5358,7 @@
       <c r="I39" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="J39" s="38" t="s">
+      <c r="J39" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5330,7 +5390,7 @@
       <c r="I40" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="J40" s="38" t="s">
+      <c r="J40" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5362,7 +5422,7 @@
       <c r="I41" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="J41" s="38" t="s">
+      <c r="J41" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5394,7 +5454,7 @@
       <c r="I42" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5426,7 +5486,7 @@
       <c r="I43" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5527,25 +5587,25 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -5569,7 +5629,7 @@
       <c r="I48" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="J48" s="40" t="s">
+      <c r="J48" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5577,7 +5637,7 @@
       <c r="A49" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -5601,7 +5661,7 @@
       <c r="I49" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="J49" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5613,7 +5673,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>42</v>
@@ -5631,9 +5691,9 @@
         <v>305</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="J50" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="J50" s="33" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5641,7 +5701,7 @@
       <c r="A51" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C51" s="9" t="s">
@@ -5660,12 +5720,12 @@
         <v>172</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="J51" s="39" t="s">
+      <c r="J51" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5673,7 +5733,7 @@
       <c r="A52" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -5692,12 +5752,12 @@
         <v>172</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="J52" s="39" t="s">
+      <c r="J52" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5729,7 +5789,7 @@
       <c r="I53" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="J53" s="39" t="s">
+      <c r="J53" s="32" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5785,7 +5845,7 @@
         <v>43</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>172</v>
@@ -5796,7 +5856,7 @@
       <c r="I55" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="J55" s="41" t="s">
+      <c r="J55" s="34" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5817,7 +5877,7 @@
         <v>43</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>172</v>
@@ -5828,7 +5888,7 @@
       <c r="I56" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="J56" s="38" t="s">
+      <c r="J56" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5849,18 +5909,18 @@
         <v>43</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>172</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="J57" s="38" t="s">
+      <c r="J57" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5868,7 +5928,7 @@
       <c r="A58" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C58" s="9" t="s">
@@ -5900,7 +5960,7 @@
       <c r="A59" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B59" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C59" s="9" t="s">
@@ -5932,7 +5992,7 @@
       <c r="A60" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C60" s="9" t="s">
@@ -5964,7 +6024,7 @@
       <c r="A61" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="26" t="s">
         <v>318</v>
       </c>
       <c r="C61" s="9" t="s">
@@ -6008,7 +6068,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -6071,12 +6131,12 @@
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>107</v>
+        <v>407</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -6097,25 +6157,25 @@
       <c r="I2" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="28" t="s">
         <v>104</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M2" s="34"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -6136,25 +6196,25 @@
       <c r="I3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="28" t="s">
         <v>104</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="34"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>109</v>
+        <v>409</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -6175,10 +6235,10 @@
       <c r="I4" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="28" t="s">
         <v>104</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -6187,12 +6247,12 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -6213,10 +6273,10 @@
       <c r="I5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J5" s="35" t="s">
+      <c r="J5" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="28" t="s">
         <v>104</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -6225,12 +6285,12 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>61</v>
+        <v>411</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -6263,12 +6323,12 @@
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -6301,15 +6361,15 @@
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>116</v>
+        <v>413</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="25" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -6324,10 +6384,10 @@
       <c r="I8" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="30" t="s">
         <v>347</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -6336,15 +6396,15 @@
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>118</v>
+        <v>414</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="25" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -6359,10 +6419,10 @@
       <c r="I9" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="30" t="s">
         <v>346</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -6371,15 +6431,15 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>120</v>
+        <v>415</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="25" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -6394,10 +6454,10 @@
       <c r="I10" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="30" t="s">
         <v>350</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -6406,12 +6466,12 @@
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -6432,10 +6492,10 @@
       <c r="I11" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="30" t="s">
         <v>355</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -6444,12 +6504,12 @@
     </row>
     <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>162</v>
+        <v>417</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -6482,12 +6542,12 @@
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>163</v>
+        <v>418</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="28" t="s">
         <v>341</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -6520,12 +6580,12 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D14" s="9" t="s">
@@ -6538,7 +6598,7 @@
         <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>172</v>
@@ -6547,10 +6607,10 @@
         <v>302</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>80</v>
@@ -6558,12 +6618,12 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B15" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -6576,19 +6636,19 @@
         <v>76</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>172</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>368</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>80</v>
@@ -6596,12 +6656,12 @@
     </row>
     <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="B16" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -6614,19 +6674,19 @@
         <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>172</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>80</v>
@@ -6634,16 +6694,16 @@
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>134</v>
+        <v>422</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>43</v>
@@ -6652,7 +6712,7 @@
         <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>172</v>
@@ -6661,10 +6721,10 @@
         <v>305</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>80</v>
@@ -6672,12 +6732,12 @@
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>143</v>
+        <v>423</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -6690,7 +6750,7 @@
         <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>172</v>
@@ -6699,10 +6759,10 @@
         <v>294</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>80</v>
@@ -6713,12 +6773,12 @@
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>144</v>
+        <v>424</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -6731,19 +6791,19 @@
         <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>172</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>391</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>393</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>80</v>
@@ -6752,12 +6812,12 @@
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -6770,7 +6830,7 @@
         <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>172</v>
@@ -6779,10 +6839,10 @@
         <v>319</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>80</v>
@@ -6790,12 +6850,12 @@
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -6808,7 +6868,7 @@
         <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>172</v>
@@ -6817,10 +6877,10 @@
         <v>321</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>80</v>
@@ -6828,12 +6888,12 @@
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -6846,7 +6906,7 @@
         <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>172</v>
@@ -6855,10 +6915,10 @@
         <v>322</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>80</v>
@@ -6866,12 +6926,12 @@
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="28" t="s">
         <v>351</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -6884,7 +6944,7 @@
         <v>76</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>172</v>
@@ -6893,10 +6953,10 @@
         <v>325</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>80</v>
@@ -6924,59 +6984,59 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B5" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="B6" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>403</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>399</v>
-      </c>
-      <c r="B6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>400</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>401</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -6996,42 +7056,42 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
+      <c r="B20" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
+      <c r="B40" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TD_Tarasevich(Task).xlsx
+++ b/TD_Tarasevich(Task).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="426">
   <si>
     <t>ID</t>
   </si>
@@ -544,20 +544,6 @@
   </si>
   <si>
     <t>Функция сменить статус работает</t>
-  </si>
-  <si>
-    <t>1)Кликнуть на таб "Add Task"
-2)Кликнуть на поле "Title"
-3)Ввести Title
-4)Выбрать приоритет Low из выпадающего pop-up Select priority
-5)Кликнуть на поле "Desctiption"
-6)Ввести Desctiption
-7)Кликнуть на поле "Add"</t>
-  </si>
-  <si>
-    <t>URL open: http://inqa-challenge.surge.sh/
-Title: Tom
-Desctiption: 123</t>
   </si>
   <si>
     <t>URL open: http://inqa-challenge.surge.sh/</t>
@@ -602,16 +588,6 @@
 3)Кликнуть на поле "Add"</t>
   </si>
   <si>
-    <t>URL open: http://inqa-challenge.surge.sh/
-Desctiption: 123</t>
-  </si>
-  <si>
-    <t>1)Кликнуть на таб "Add Task"
-2)Кликнуть на поле "Desctiption"
-3)Ввести Desctiption
-4)Кликнуть на поле "Add"</t>
-  </si>
-  <si>
     <t>1)Кликнуть на таб "Add Task"
 2)Кликнуть на поле "Add"</t>
   </si>
@@ -807,20 +783,7 @@
 2)Кликнуть на поле "Select priority"</t>
   </si>
   <si>
-    <t>1)Кликнуть на таб "Add Task"
-2)Кликнуть на поле "Desctiption"</t>
-  </si>
-  <si>
     <t>1)Кликнуть на поле "Text search"</t>
-  </si>
-  <si>
-    <t>1)Открываается таба с анкетой создания задачи
-2)Поле "Title" становится активным
-3)Title введен
-4)Приоритет выбран
-5)Поле "Desctiption" становится активным
-6)Desctiption введен
-7)Происходит обновление формы для создания новой задачи</t>
   </si>
   <si>
     <t>1)Открываается таба с анкетой создания задачи
@@ -837,10 +800,6 @@
     <t xml:space="preserve">Отображение задачи в пустом local storage </t>
   </si>
   <si>
-    <t>1)Открываается таба с анкетой создания задачи
-2)Поле "Desctiption" становится активным</t>
-  </si>
-  <si>
     <t>1)Кликнуть на таб "Add Task"
 2)Кликнуть на поле "Title"</t>
   </si>
@@ -933,9 +892,6 @@
   </si>
   <si>
     <t>1)Сравнить поля в local storage с полями в Add Task</t>
-  </si>
-  <si>
-    <t>1)Выполнить Test Case ID F_1.1</t>
   </si>
   <si>
     <t>1)Задача создана, появляется окно с сообщением: Задача успешно создана</t>
@@ -953,16 +909,7 @@
   </si>
   <si>
     <t>1)Открываается таба с анкетой создания задачи
-2)Поле "Desctiption" становится активным
-3)Desctiption введен
-4)Задача не создана, появляется окно с сообщением: Устраните ошибки</t>
-  </si>
-  <si>
-    <t>1)Открываается таба с анкетой создания задачи
 2)Задача не создана, появляется окно с сообщением: Устраните ошибки</t>
-  </si>
-  <si>
-    <t>1)Выполнить Test Case ID F_1.6</t>
   </si>
   <si>
     <t>1)Задача не создана, появляется окно с сообщением: Устраните ошибки</t>
@@ -1038,13 +985,6 @@
 Text: https://gsgen.ru/tools/fish-text/</t>
   </si>
   <si>
-    <t>1)Открываается таба с анкетой создания задачи
-2)Поле "Desctiption" становится активным
-3)Text вставлен
-4)Scroll bar становится активным                    
-5)Происходит пролистывание текста вниз</t>
-  </si>
-  <si>
     <t>1)Навести курсор на поле ввода текста</t>
   </si>
   <si>
@@ -1113,33 +1053,7 @@
     <t>Минимальное</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Кликнуть по полю "Desctiption"
-3)Вставить сгенерированный Text
-4)Кликнуть на scroll bar (удерживая левый клик)                                                                           
-5)Провести мышку вниз </t>
-  </si>
-  <si>
-    <t>Минимальный размер поля "Desctiption" 15/15рх</t>
-  </si>
-  <si>
-    <t>Отображение задачи в local storage при наличии в нем 2 задач</t>
-  </si>
-  <si>
-    <t>1)Открываается таба с анкетой создания задачи
-2)Уголок становится активным
-3)Поле "Desctiption" уменьшилось до минимального значения</t>
-  </si>
-  <si>
     <t>Поле "Desctiption" масштабируется до 15/15px</t>
-  </si>
-  <si>
-    <t>Максимальный размер поля "Desctiption" 1617/791рх</t>
-  </si>
-  <si>
-    <t>1)Открываается таба с анкетой создания задачи
-2)Уголок становится активным
-3)Поле "Desctiption" растянулось до максимального значения</t>
   </si>
   <si>
     <t>Поле "Desctiption" масштабируется до 1617/791рх</t>
@@ -1161,33 +1075,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>Раздел "About" не выбран, его информация указывается</t>
-  </si>
-  <si>
-    <t>Раздел "About" не активирован</t>
-  </si>
-  <si>
-    <t>Раздел "inQA.by" не активирован</t>
-  </si>
-  <si>
-    <t>Раздел "inQA.by" не выбран, его информация указывается</t>
-  </si>
-  <si>
-    <t>Раздел "inQA.by" выбран, его информация указывается</t>
-  </si>
-  <si>
-    <t>Раздел "About" выбран, его информация указывается</t>
-  </si>
-  <si>
-    <t>Раздел "Regulation" не активирован</t>
-  </si>
-  <si>
-    <t>Раздел "Regulation" не выбран, его информация указывается</t>
-  </si>
-  <si>
-    <t>Раздел "Regulation" выбран, его информация указывается</t>
-  </si>
-  <si>
     <t>Minor</t>
   </si>
   <si>
@@ -1201,9 +1088,6 @@
   </si>
   <si>
     <t>Поля соответствуют</t>
-  </si>
-  <si>
-    <t>Не отображается "Desctiption" в local storage</t>
   </si>
   <si>
     <t>Поля не соответсвуют</t>
@@ -1263,20 +1147,6 @@
 Major баг до 5 баллов</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Кликнуть курсором на resize handle поля "Desctiption" (удерживая левый клик)
-3)Уменьшить поле "Desctiption" до минимального размера                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Кликнуть курсором на resize handle поля "Desctiption" (удерживая левый клик)
-3)Растянуть поле "Desctiption" до максимального размера    </t>
-  </si>
-  <si>
-    <t>1)Кликнуть на таб "Add Task"
-2)Навести курсор на resize handle поля "Desctiption"</t>
-  </si>
-  <si>
     <t>При наведение курсора на resize handle  поля "Desctiption", курсор меняет внешний вид</t>
   </si>
   <si>
@@ -1313,15 +1183,6 @@
   </si>
   <si>
     <t>Наведение курсора на поле выпaдающего pop-up, меняет его внешний вид</t>
-  </si>
-  <si>
-    <t>Наведение курсора на resize handle поля "Desctiption", меняет его внешний вид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Навести курсор на </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Курсор не изменяется при наведение на </t>
   </si>
   <si>
     <t>Курсор изменился на</t>
@@ -1445,18 +1306,156 @@
   </si>
   <si>
     <t>BG_7.4</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на таб "Add Task"
+2)Кликнуть на поле "Description"
+3)Ввести Description
+4)Кликнуть на поле "Add"</t>
+  </si>
+  <si>
+    <t>URL open: http://inqa-challenge.surge.sh/
+Description: 123</t>
+  </si>
+  <si>
+    <t>Не отображается "Description" в local storage</t>
+  </si>
+  <si>
+    <t>Отображение задачи в local storage при наличии 2 задач</t>
+  </si>
+  <si>
+    <t>URL open: http://inqa-challenge.surge.sh/
+Title: Tom
+Description: 123</t>
+  </si>
+  <si>
+    <t>Работа поля "Description"</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на таб "Add Task"
+2)Кликнуть на поле "Description"</t>
+  </si>
+  <si>
+    <t>1)Открываается таба с анкетой создания задачи
+2)Поле "Description" становится активным</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на таб "Add Task"
+2)Кликнуть на поле "Title"
+3)Ввести Title
+4)Выбрать приоритет Low из выпадающего pop-up Select priority
+5)Кликнуть на поле "Description"
+6)Ввести Description
+7)Кликнуть на поле "Add"</t>
+  </si>
+  <si>
+    <t>1)Открываается таба с анкетой создания задачи
+2)Поле "Title" становится активным
+3)Title введен
+4)Приоритет выбран
+5)Поле "Description" становится активным
+6)Description введен
+7)Происходит обновление формы для создания новой задачи</t>
+  </si>
+  <si>
+    <t>1)Открываается таба с анкетой создания задачи
+2)Поле "Description" становится активным
+3)Description введен
+4)Задача не создана, появляется окно с сообщением: Устраните ошибки</t>
+  </si>
+  <si>
+    <t>Масштабируемость поля "Description"</t>
+  </si>
+  <si>
+    <t>Минимальный размер поля "Description" 15/15рх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Кликнуть курсором на resize handle поля "Description" (удерживая левый клик)
+3)Уменьшить поле "Description" до минимального размера                  </t>
+  </si>
+  <si>
+    <t>1)Открываается таба с анкетой создания задачи
+2)Уголок становится активным
+3)Поле "Description" уменьшилось до минимального значения</t>
+  </si>
+  <si>
+    <t>Максимальный размер поля "Description" 1617/791рх</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Кликнуть курсором на resize handle поля "Description" (удерживая левый клик)
+3)Растянуть поле "Description" до максимального размера    </t>
+  </si>
+  <si>
+    <t>1)Открываается таба с анкетой создания задачи
+2)Уголок становится активным
+3)Поле "Description" растянулось до максимального значения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Кликнуть по полю "Description"
+3)Вставить сгенерированный Text
+4)Кликнуть на scroll bar (удерживая левый клик)                                                                           
+5)Провести мышку вниз </t>
+  </si>
+  <si>
+    <t>1)Открываается таба с анкетой создания задачи
+2)Поле "Description" становится активным
+3)Text вставлен
+4)Scroll bar становится активным                    
+5)Происходит пролистывание текста вниз</t>
+  </si>
+  <si>
+    <t>Наведение курсора на resize handle поля "Description", меняет его внешний вид</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на таб "Add Task"
+2)Навести курсор на resize handle поля "Description"</t>
+  </si>
+  <si>
+    <t>Раздел "About" не выделен</t>
+  </si>
+  <si>
+    <t>Раздел "inQA.by" не выделен</t>
+  </si>
+  <si>
+    <t>Раздел "Regulation" не выделен</t>
+  </si>
+  <si>
+    <t>Раздел "About" выделен</t>
+  </si>
+  <si>
+    <t>Раздел "inQA.by" выделен</t>
+  </si>
+  <si>
+    <t>Раздел "Regulation" выделен</t>
+  </si>
+  <si>
+    <t>Курсор не изменяется при наведение на Date pickers</t>
+  </si>
+  <si>
+    <t>1)Навести курсор на Date pickers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1572,9 +1571,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1595,7 +1594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1616,13 +1615,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1652,52 +1651,52 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1705,6 +1704,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2565,94 +2567,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>333375</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8267700" y="9925050"/>
-          <a:ext cx="190500" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11868150" y="9763125"/>
-          <a:ext cx="190500" cy="133350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1638300</xdr:colOff>
       <xdr:row>18</xdr:row>
@@ -2672,7 +2586,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3131,7 +3045,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3319,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>3</v>
@@ -3422,7 +3336,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>3</v>
@@ -3442,11 +3356,11 @@
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>45</v>
@@ -3454,16 +3368,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>45</v>
@@ -3471,16 +3385,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>62</v>
@@ -3632,7 +3546,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>45</v>
@@ -3647,7 +3561,7 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>45</v>
@@ -3775,7 +3689,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>122</v>
@@ -3792,7 +3706,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>122</v>
@@ -3809,7 +3723,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>122</v>
@@ -3833,7 +3747,7 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="19" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>62</v>
@@ -3844,13 +3758,13 @@
         <v>162</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>62</v>
@@ -3861,13 +3775,13 @@
         <v>163</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>62</v>
@@ -3890,7 +3804,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>31</v>
@@ -3921,10 +3835,10 @@
         <v>134</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>62</v>
@@ -3938,10 +3852,10 @@
         <v>135</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>45</v>
@@ -3955,10 +3869,10 @@
         <v>135</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E52" s="32" t="s">
         <v>45</v>
@@ -3997,10 +3911,10 @@
         <v>144</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>62</v>
@@ -4022,13 +3936,13 @@
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>45</v>
@@ -4039,10 +3953,10 @@
         <v>146</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>153</v>
@@ -4056,10 +3970,10 @@
         <v>147</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>153</v>
@@ -4073,10 +3987,10 @@
         <v>148</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>153</v>
@@ -4090,10 +4004,10 @@
         <v>149</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>153</v>
@@ -4118,9 +4032,9 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4174,7 +4088,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4237,13 +4151,13 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>171</v>
+        <v>400</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>170</v>
+        <v>404</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>243</v>
+        <v>405</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>45</v>
@@ -4272,13 +4186,13 @@
         <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>45</v>
@@ -4304,16 +4218,16 @@
         <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>62</v>
@@ -4337,16 +4251,16 @@
         <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>62</v>
@@ -4372,16 +4286,16 @@
         <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>182</v>
+        <v>397</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>183</v>
+        <v>396</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>281</v>
+        <v>406</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>62</v>
@@ -4405,16 +4319,16 @@
         <v>43</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>62</v>
@@ -4471,13 +4385,13 @@
         <v>91</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>45</v>
@@ -4506,13 +4420,13 @@
         <v>92</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>45</v>
@@ -4541,13 +4455,13 @@
         <v>93</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>83</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>45</v>
@@ -4576,7 +4490,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>73</v>
@@ -4608,7 +4522,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -4640,7 +4554,7 @@
         <v>85</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>86</v>
@@ -4654,13 +4568,13 @@
     </row>
     <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>42</v>
@@ -4672,13 +4586,13 @@
         <v>111</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>45</v>
@@ -4686,13 +4600,13 @@
     </row>
     <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
@@ -4704,13 +4618,13 @@
         <v>112</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>45</v>
@@ -4724,7 +4638,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -4733,16 +4647,16 @@
         <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>45</v>
@@ -4750,13 +4664,13 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>42</v>
@@ -4765,16 +4679,16 @@
         <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>45</v>
@@ -4782,13 +4696,13 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>42</v>
@@ -4797,16 +4711,16 @@
         <v>43</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>62</v>
@@ -4814,7 +4728,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -4847,13 +4761,13 @@
         <v>69</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>45</v>
@@ -4876,13 +4790,13 @@
         <v>43</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J24" s="32" t="s">
         <v>45</v>
@@ -4908,13 +4822,13 @@
         <v>70</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>45</v>
@@ -4937,13 +4851,13 @@
         <v>43</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H26" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>62</v>
@@ -4969,13 +4883,13 @@
         <v>71</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>45</v>
@@ -4998,13 +4912,13 @@
         <v>43</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H28" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>62</v>
@@ -5030,13 +4944,13 @@
         <v>72</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>45</v>
@@ -5059,13 +4973,13 @@
         <v>43</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H30" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>62</v>
@@ -5088,16 +5002,16 @@
         <v>43</v>
       </c>
       <c r="F31" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>45</v>
@@ -5120,16 +5034,16 @@
         <v>43</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>45</v>
@@ -5152,16 +5066,16 @@
         <v>43</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>45</v>
@@ -5184,16 +5098,16 @@
         <v>43</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>45</v>
@@ -5210,7 +5124,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>100</v>
+        <v>401</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>42</v>
@@ -5219,16 +5133,16 @@
         <v>43</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>241</v>
+        <v>402</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>247</v>
+        <v>403</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>45</v>
@@ -5251,16 +5165,16 @@
         <v>43</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>45</v>
@@ -5283,16 +5197,16 @@
         <v>43</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J37" s="31" t="s">
         <v>45</v>
@@ -5315,16 +5229,16 @@
         <v>43</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="J38" s="31" t="s">
         <v>45</v>
@@ -5347,16 +5261,16 @@
         <v>43</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="J39" s="31" t="s">
         <v>45</v>
@@ -5379,16 +5293,16 @@
         <v>43</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>45</v>
@@ -5396,7 +5310,7 @@
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>88</v>
@@ -5411,16 +5325,16 @@
         <v>43</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>45</v>
@@ -5428,7 +5342,7 @@
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>88</v>
@@ -5443,16 +5357,16 @@
         <v>43</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>45</v>
@@ -5460,7 +5374,7 @@
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>88</v>
@@ -5475,16 +5389,16 @@
         <v>43</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>45</v>
@@ -5510,19 +5424,19 @@
         <v>157</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>162</v>
       </c>
@@ -5530,7 +5444,7 @@
         <v>40</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>42</v>
@@ -5539,16 +5453,16 @@
         <v>43</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>277</v>
+        <v>170</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>62</v>
@@ -5562,7 +5476,7 @@
         <v>40</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
@@ -5571,16 +5485,16 @@
         <v>43</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>283</v>
+        <v>170</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>62</v>
@@ -5588,7 +5502,7 @@
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -5618,16 +5532,16 @@
         <v>43</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J48" s="33" t="s">
         <v>62</v>
@@ -5650,16 +5564,16 @@
         <v>43</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J49" s="33" t="s">
         <v>62</v>
@@ -5673,7 +5587,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>42</v>
@@ -5682,16 +5596,16 @@
         <v>43</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>62</v>
@@ -5702,10 +5616,10 @@
         <v>140</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>42</v>
@@ -5714,16 +5628,16 @@
         <v>43</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
       <c r="J51" s="32" t="s">
         <v>45</v>
@@ -5734,10 +5648,10 @@
         <v>141</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>42</v>
@@ -5746,16 +5660,16 @@
         <v>43</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>334</v>
+        <v>411</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="J52" s="32" t="s">
         <v>45</v>
@@ -5778,16 +5692,16 @@
         <v>43</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H53" s="19" t="s">
-        <v>329</v>
+        <v>414</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
       <c r="J53" s="32" t="s">
         <v>45</v>
@@ -5810,22 +5724,22 @@
         <v>43</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5836,7 +5750,7 @@
         <v>88</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>42</v>
@@ -5845,16 +5759,16 @@
         <v>43</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>62</v>
@@ -5877,16 +5791,16 @@
         <v>43</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="J56" s="31" t="s">
         <v>45</v>
@@ -5894,13 +5808,13 @@
     </row>
     <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>42</v>
@@ -5909,16 +5823,16 @@
         <v>43</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J57" s="31" t="s">
         <v>45</v>
@@ -5929,10 +5843,10 @@
         <v>146</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>42</v>
@@ -5941,16 +5855,16 @@
         <v>43</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>62</v>
@@ -5961,10 +5875,10 @@
         <v>147</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>42</v>
@@ -5973,16 +5887,16 @@
         <v>43</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>62</v>
@@ -5993,10 +5907,10 @@
         <v>148</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>42</v>
@@ -6005,16 +5919,16 @@
         <v>43</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="J60" s="16" t="s">
         <v>62</v>
@@ -6025,10 +5939,10 @@
         <v>149</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>42</v>
@@ -6037,16 +5951,16 @@
         <v>43</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>62</v>
@@ -6068,8 +5982,8 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6131,13 +6045,13 @@
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -6152,10 +6066,10 @@
         <v>47</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>47</v>
@@ -6170,13 +6084,13 @@
     </row>
     <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>48</v>
@@ -6191,10 +6105,10 @@
         <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>47</v>
@@ -6209,13 +6123,13 @@
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -6230,10 +6144,10 @@
         <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>182</v>
+        <v>397</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>183</v>
+        <v>396</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>47</v>
@@ -6247,13 +6161,13 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
@@ -6268,10 +6182,10 @@
         <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>47</v>
@@ -6285,7 +6199,7 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>40</v>
@@ -6306,7 +6220,7 @@
         <v>77</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>81</v>
@@ -6323,16 +6237,16 @@
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>43</v>
@@ -6341,19 +6255,19 @@
         <v>76</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>80</v>
@@ -6361,13 +6275,13 @@
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>70</v>
@@ -6379,16 +6293,16 @@
         <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>80</v>
@@ -6396,13 +6310,13 @@
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>71</v>
@@ -6414,16 +6328,16 @@
         <v>76</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>80</v>
@@ -6431,13 +6345,13 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>72</v>
@@ -6449,16 +6363,16 @@
         <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>80</v>
@@ -6466,7 +6380,7 @@
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>40</v>
@@ -6484,36 +6398,36 @@
         <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>43</v>
@@ -6522,19 +6436,19 @@
         <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>277</v>
+        <v>170</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>80</v>
@@ -6542,16 +6456,16 @@
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>43</v>
@@ -6560,19 +6474,19 @@
         <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>283</v>
+        <v>170</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>80</v>
@@ -6580,13 +6494,13 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>30</v>
@@ -6598,19 +6512,19 @@
         <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>80</v>
@@ -6618,13 +6532,13 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>30</v>
@@ -6636,19 +6550,19 @@
         <v>76</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>368</v>
+        <v>342</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>80</v>
@@ -6656,13 +6570,13 @@
     </row>
     <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>30</v>
@@ -6674,19 +6588,19 @@
         <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>80</v>
@@ -6694,16 +6608,16 @@
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>43</v>
@@ -6712,19 +6626,19 @@
         <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>80</v>
@@ -6732,13 +6646,13 @@
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>138</v>
@@ -6750,39 +6664,39 @@
         <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>43</v>
@@ -6791,19 +6705,19 @@
         <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>80</v>
@@ -6812,16 +6726,16 @@
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>43</v>
@@ -6830,19 +6744,19 @@
         <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>80</v>
@@ -6850,16 +6764,16 @@
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>43</v>
@@ -6868,19 +6782,19 @@
         <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>80</v>
@@ -6888,16 +6802,16 @@
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>43</v>
@@ -6906,19 +6820,19 @@
         <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>80</v>
@@ -6926,16 +6840,16 @@
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>43</v>
@@ -6944,19 +6858,19 @@
         <v>76</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>80</v>
@@ -6985,23 +6899,23 @@
   <sheetData>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>43</v>
@@ -7009,34 +6923,34 @@
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -7057,7 +6971,7 @@
   <sheetData>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="44" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -7076,7 +6990,7 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="44" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="C40" s="44"/>
       <c r="D40" s="44"/>

--- a/TD_Tarasevich(Task).xlsx
+++ b/TD_Tarasevich(Task).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="427">
   <si>
     <t>ID</t>
   </si>
@@ -273,11 +273,6 @@
   <si>
     <t>1)Кликнуть на поле "Text search" 
 2)Ввести To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Выбрать приоритет Midium из выпадающего pop-up Select priority
-</t>
   </si>
   <si>
     <t xml:space="preserve">1)Кликнуть на таб "Add Task"
@@ -1436,6 +1431,14 @@
   </si>
   <si>
     <t>1)Навести курсор на Date pickers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Выбрать приоритет Medium из выпадающего pop-up Select priority
+</t>
+  </si>
+  <si>
+    <t>Выбор приоритета Medium</t>
   </si>
 </sst>
 </file>
@@ -1681,6 +1684,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1704,9 +1710,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3073,13 +3076,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -3100,13 +3103,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>47</v>
@@ -3117,13 +3120,13 @@
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>47</v>
@@ -3134,16 +3137,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>62</v>
@@ -3151,16 +3154,16 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>62</v>
@@ -3168,16 +3171,16 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>62</v>
@@ -3185,16 +3188,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>62</v>
@@ -3220,10 +3223,10 @@
         <v>54</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
@@ -3237,10 +3240,10 @@
         <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
@@ -3254,10 +3257,10 @@
         <v>56</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
@@ -3271,10 +3274,10 @@
         <v>58</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
@@ -3291,7 +3294,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>5</v>
@@ -3302,13 +3305,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>79</v>
@@ -3319,13 +3322,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
@@ -3336,13 +3339,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>7</v>
@@ -3356,11 +3359,11 @@
         <v>21</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>45</v>
@@ -3368,16 +3371,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E20" s="31" t="s">
         <v>45</v>
@@ -3385,33 +3388,33 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>69</v>
@@ -3426,13 +3429,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>65</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>70</v>
@@ -3458,13 +3461,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>66</v>
@@ -3475,7 +3478,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>71</v>
@@ -3490,13 +3493,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>67</v>
@@ -3507,7 +3510,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>72</v>
@@ -3522,13 +3525,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>68</v>
@@ -3546,7 +3549,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E31" s="32" t="s">
         <v>45</v>
@@ -3561,7 +3564,7 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E32" s="32" t="s">
         <v>45</v>
@@ -3602,7 +3605,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
@@ -3617,11 +3620,11 @@
         <v>35</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E36" s="32" t="s">
         <v>45</v>
@@ -3629,14 +3632,14 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" s="32" t="s">
         <v>45</v>
@@ -3644,14 +3647,14 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38" s="32" t="s">
         <v>45</v>
@@ -3659,14 +3662,14 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" s="32" t="s">
         <v>45</v>
@@ -3674,7 +3677,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>36</v>
@@ -3689,16 +3692,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="E41" s="32" t="s">
         <v>45</v>
@@ -3706,16 +3709,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>45</v>
@@ -3723,16 +3726,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>45</v>
@@ -3740,14 +3743,14 @@
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>62</v>
@@ -3755,16 +3758,16 @@
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>174</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>62</v>
@@ -3772,39 +3775,39 @@
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>181</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>182</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>31</v>
@@ -3815,13 +3818,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>31</v>
@@ -3832,13 +3835,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>62</v>
@@ -3846,16 +3849,16 @@
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>45</v>
@@ -3863,16 +3866,16 @@
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E52" s="32" t="s">
         <v>45</v>
@@ -3880,13 +3883,13 @@
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" s="32" t="s">
         <v>45</v>
@@ -3894,13 +3897,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>62</v>
@@ -3908,13 +3911,13 @@
     </row>
     <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>62</v>
@@ -3922,13 +3925,13 @@
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E56" s="31" t="s">
         <v>45</v>
@@ -3936,13 +3939,13 @@
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>321</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E57" s="31" t="s">
         <v>45</v>
@@ -3950,16 +3953,16 @@
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>279</v>
-      </c>
       <c r="D58" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>62</v>
@@ -3967,16 +3970,16 @@
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>62</v>
@@ -3984,16 +3987,16 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>62</v>
@@ -4001,16 +4004,16 @@
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>62</v>
@@ -4031,10 +4034,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4087,19 +4090,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="A2" s="42" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4133,7 +4136,7 @@
     </row>
     <row r="4" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>40</v>
@@ -4151,13 +4154,13 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>404</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="J4" s="31" t="s">
         <v>45</v>
@@ -4168,7 +4171,7 @@
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>40</v>
@@ -4186,13 +4189,13 @@
         <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>45</v>
@@ -4203,7 +4206,7 @@
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>40</v>
@@ -4218,16 +4221,16 @@
         <v>43</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>62</v>
@@ -4236,7 +4239,7 @@
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>40</v>
@@ -4251,16 +4254,16 @@
         <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>62</v>
@@ -4271,7 +4274,7 @@
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>40</v>
@@ -4286,16 +4289,16 @@
         <v>43</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>62</v>
@@ -4304,7 +4307,7 @@
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>40</v>
@@ -4319,16 +4322,16 @@
         <v>43</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>62</v>
@@ -4359,7 +4362,7 @@
         <v>44</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>45</v>
@@ -4373,7 +4376,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>42</v>
@@ -4382,16 +4385,16 @@
         <v>43</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>74</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>45</v>
@@ -4408,7 +4411,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>42</v>
@@ -4417,16 +4420,16 @@
         <v>43</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>92</v>
+        <v>426</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>45</v>
@@ -4443,7 +4446,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>42</v>
@@ -4452,16 +4455,16 @@
         <v>43</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>45</v>
@@ -4490,7 +4493,7 @@
         <v>59</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>73</v>
@@ -4522,7 +4525,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>81</v>
@@ -4536,10 +4539,10 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>50</v>
@@ -4551,16 +4554,16 @@
         <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>45</v>
@@ -4568,13 +4571,13 @@
     </row>
     <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>42</v>
@@ -4583,16 +4586,16 @@
         <v>43</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>45</v>
@@ -4600,13 +4603,13 @@
     </row>
     <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>42</v>
@@ -4615,16 +4618,16 @@
         <v>43</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>45</v>
@@ -4638,7 +4641,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>42</v>
@@ -4647,16 +4650,16 @@
         <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="G19" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="J19" s="31" t="s">
         <v>45</v>
@@ -4664,13 +4667,13 @@
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>42</v>
@@ -4679,16 +4682,16 @@
         <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="J20" s="31" t="s">
         <v>45</v>
@@ -4696,13 +4699,13 @@
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>42</v>
@@ -4711,39 +4714,39 @@
         <v>43</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>199</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+      <c r="A22" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>40</v>
@@ -4761,13 +4764,13 @@
         <v>69</v>
       </c>
       <c r="G23" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>45</v>
@@ -4775,10 +4778,10 @@
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>69</v>
@@ -4790,13 +4793,13 @@
         <v>43</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J24" s="32" t="s">
         <v>45</v>
@@ -4804,7 +4807,7 @@
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>40</v>
@@ -4822,13 +4825,13 @@
         <v>70</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="J25" s="31" t="s">
         <v>45</v>
@@ -4836,10 +4839,10 @@
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>70</v>
@@ -4851,13 +4854,13 @@
         <v>43</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>62</v>
@@ -4865,7 +4868,7 @@
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>40</v>
@@ -4883,13 +4886,13 @@
         <v>71</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J27" s="31" t="s">
         <v>45</v>
@@ -4897,10 +4900,10 @@
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>71</v>
@@ -4912,13 +4915,13 @@
         <v>43</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>62</v>
@@ -4926,7 +4929,7 @@
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>40</v>
@@ -4944,13 +4947,13 @@
         <v>72</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J29" s="31" t="s">
         <v>45</v>
@@ -4958,10 +4961,10 @@
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>72</v>
@@ -4973,13 +4976,13 @@
         <v>43</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>62</v>
@@ -5002,16 +5005,16 @@
         <v>43</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H31" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="J31" s="31" t="s">
         <v>45</v>
@@ -5034,16 +5037,16 @@
         <v>43</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J32" s="31" t="s">
         <v>45</v>
@@ -5066,16 +5069,16 @@
         <v>43</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="J33" s="31" t="s">
         <v>45</v>
@@ -5098,16 +5101,16 @@
         <v>43</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>45</v>
@@ -5124,7 +5127,7 @@
         <v>40</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>42</v>
@@ -5133,16 +5136,16 @@
         <v>43</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>45</v>
@@ -5153,10 +5156,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>42</v>
@@ -5165,16 +5168,16 @@
         <v>43</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J36" s="31" t="s">
         <v>45</v>
@@ -5182,13 +5185,13 @@
     </row>
     <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>42</v>
@@ -5197,16 +5200,16 @@
         <v>43</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J37" s="31" t="s">
         <v>45</v>
@@ -5214,13 +5217,13 @@
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>42</v>
@@ -5229,16 +5232,16 @@
         <v>43</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J38" s="31" t="s">
         <v>45</v>
@@ -5246,13 +5249,13 @@
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>42</v>
@@ -5261,16 +5264,16 @@
         <v>43</v>
       </c>
       <c r="F39" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G39" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>248</v>
-      </c>
       <c r="I39" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J39" s="31" t="s">
         <v>45</v>
@@ -5278,10 +5281,10 @@
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>36</v>
@@ -5293,16 +5296,16 @@
         <v>43</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G40" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="J40" s="31" t="s">
         <v>45</v>
@@ -5310,13 +5313,13 @@
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>42</v>
@@ -5325,16 +5328,16 @@
         <v>43</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J41" s="31" t="s">
         <v>45</v>
@@ -5342,13 +5345,13 @@
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>42</v>
@@ -5357,16 +5360,16 @@
         <v>43</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J42" s="31" t="s">
         <v>45</v>
@@ -5374,13 +5377,13 @@
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>42</v>
@@ -5389,16 +5392,16 @@
         <v>43</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J43" s="31" t="s">
         <v>45</v>
@@ -5406,13 +5409,13 @@
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>42</v>
@@ -5421,16 +5424,16 @@
         <v>43</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>62</v>
@@ -5438,13 +5441,13 @@
     </row>
     <row r="45" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>42</v>
@@ -5453,16 +5456,16 @@
         <v>43</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>62</v>
@@ -5470,13 +5473,13 @@
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>42</v>
@@ -5485,42 +5488,42 @@
         <v>43</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
+      <c r="A47" s="42" t="s">
+        <v>276</v>
+      </c>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>30</v>
@@ -5532,16 +5535,16 @@
         <v>43</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H48" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I48" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="J48" s="33" t="s">
         <v>62</v>
@@ -5549,10 +5552,10 @@
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>30</v>
@@ -5564,16 +5567,16 @@
         <v>43</v>
       </c>
       <c r="F49" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="G49" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="I49" s="19" t="s">
         <v>292</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>293</v>
       </c>
       <c r="J49" s="33" t="s">
         <v>62</v>
@@ -5581,13 +5584,13 @@
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>42</v>
@@ -5596,16 +5599,16 @@
         <v>43</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="G50" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>295</v>
-      </c>
       <c r="I50" s="19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J50" s="33" t="s">
         <v>62</v>
@@ -5613,13 +5616,13 @@
     </row>
     <row r="51" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>42</v>
@@ -5628,16 +5631,16 @@
         <v>43</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="G51" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="J51" s="32" t="s">
         <v>45</v>
@@ -5645,13 +5648,13 @@
     </row>
     <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>42</v>
@@ -5660,16 +5663,16 @@
         <v>43</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G52" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H52" s="4" t="s">
+      <c r="I52" s="4" t="s">
         <v>412</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>413</v>
       </c>
       <c r="J52" s="32" t="s">
         <v>45</v>
@@ -5677,13 +5680,13 @@
     </row>
     <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>42</v>
@@ -5692,16 +5695,16 @@
         <v>43</v>
       </c>
       <c r="F53" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G53" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="H53" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>414</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>415</v>
       </c>
       <c r="J53" s="32" t="s">
         <v>45</v>
@@ -5709,13 +5712,13 @@
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>42</v>
@@ -5724,33 +5727,33 @@
         <v>43</v>
       </c>
       <c r="F54" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="G54" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H54" s="19" t="s">
+      <c r="I54" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>285</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>62</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>42</v>
@@ -5759,16 +5762,16 @@
         <v>43</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J55" s="34" t="s">
         <v>62</v>
@@ -5776,13 +5779,13 @@
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>42</v>
@@ -5791,16 +5794,16 @@
         <v>43</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H56" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="J56" s="31" t="s">
         <v>45</v>
@@ -5808,13 +5811,13 @@
     </row>
     <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>320</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>321</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>42</v>
@@ -5823,16 +5826,16 @@
         <v>43</v>
       </c>
       <c r="F57" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="I57" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J57" s="31" t="s">
         <v>45</v>
@@ -5840,13 +5843,13 @@
     </row>
     <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>42</v>
@@ -5855,16 +5858,16 @@
         <v>43</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H58" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>62</v>
@@ -5872,13 +5875,13 @@
     </row>
     <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>42</v>
@@ -5887,16 +5890,16 @@
         <v>43</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J59" s="16" t="s">
         <v>62</v>
@@ -5904,13 +5907,13 @@
     </row>
     <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>42</v>
@@ -5919,16 +5922,16 @@
         <v>43</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J60" s="16" t="s">
         <v>62</v>
@@ -5936,13 +5939,13 @@
     </row>
     <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>42</v>
@@ -5951,16 +5954,16 @@
         <v>43</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H61" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>62</v>
@@ -5981,9 +5984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6045,13 +6048,13 @@
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>48</v>
@@ -6066,16 +6069,16 @@
         <v>47</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>80</v>
@@ -6084,13 +6087,13 @@
     </row>
     <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>48</v>
@@ -6105,16 +6108,16 @@
         <v>47</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>80</v>
@@ -6123,13 +6126,13 @@
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>48</v>
@@ -6144,16 +6147,16 @@
         <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>80</v>
@@ -6161,13 +6164,13 @@
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
@@ -6182,16 +6185,16 @@
         <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>80</v>
@@ -6199,7 +6202,7 @@
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>40</v>
@@ -6220,7 +6223,7 @@
         <v>77</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>81</v>
@@ -6237,16 +6240,16 @@
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>43</v>
@@ -6255,19 +6258,19 @@
         <v>76</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>80</v>
@@ -6275,13 +6278,13 @@
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>70</v>
@@ -6293,16 +6296,16 @@
         <v>76</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>80</v>
@@ -6310,13 +6313,13 @@
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>71</v>
@@ -6328,16 +6331,16 @@
         <v>76</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>80</v>
@@ -6345,13 +6348,13 @@
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>72</v>
@@ -6363,16 +6366,16 @@
         <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>80</v>
@@ -6380,7 +6383,7 @@
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>40</v>
@@ -6389,7 +6392,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>43</v>
@@ -6398,19 +6401,19 @@
         <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>80</v>
@@ -6418,16 +6421,16 @@
     </row>
     <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>43</v>
@@ -6436,19 +6439,19 @@
         <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>80</v>
@@ -6456,16 +6459,16 @@
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>43</v>
@@ -6474,19 +6477,19 @@
         <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>80</v>
@@ -6494,13 +6497,13 @@
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>30</v>
@@ -6512,19 +6515,19 @@
         <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>80</v>
@@ -6532,13 +6535,13 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>30</v>
@@ -6550,19 +6553,19 @@
         <v>76</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="J15" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>80</v>
@@ -6570,13 +6573,13 @@
     </row>
     <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>30</v>
@@ -6588,19 +6591,19 @@
         <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I16" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>80</v>
@@ -6608,16 +6611,16 @@
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>43</v>
@@ -6626,19 +6629,19 @@
         <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>80</v>
@@ -6646,16 +6649,16 @@
     </row>
     <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>43</v>
@@ -6664,39 +6667,39 @@
         <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>80</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>43</v>
@@ -6705,19 +6708,19 @@
         <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>425</v>
-      </c>
       <c r="J19" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>80</v>
@@ -6726,16 +6729,16 @@
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>43</v>
@@ -6744,19 +6747,19 @@
         <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>80</v>
@@ -6764,16 +6767,16 @@
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>43</v>
@@ -6782,19 +6785,19 @@
         <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>80</v>
@@ -6802,16 +6805,16 @@
     </row>
     <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>43</v>
@@ -6820,19 +6823,19 @@
         <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>80</v>
@@ -6840,16 +6843,16 @@
     </row>
     <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>43</v>
@@ -6858,19 +6861,19 @@
         <v>76</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>80</v>
@@ -6899,23 +6902,23 @@
   <sheetData>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>43</v>
@@ -6923,34 +6926,34 @@
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6970,42 +6973,42 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TD_Tarasevich(Task).xlsx
+++ b/TD_Tarasevich(Task).xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="Test Case" sheetId="2" r:id="rId2"/>
     <sheet name="Bug Report" sheetId="3" r:id="rId3"/>
     <sheet name="Report" sheetId="5" r:id="rId4"/>
-    <sheet name="image" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="405">
   <si>
     <t>ID</t>
   </si>
@@ -77,9 +76,6 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Usability</t>
-  </si>
-  <si>
     <t>F_2</t>
   </si>
   <si>
@@ -105,9 +101,6 @@
   </si>
   <si>
     <t>U_9</t>
-  </si>
-  <si>
-    <t>GIU</t>
   </si>
   <si>
     <t>Cоответствие сайта его макеру</t>
@@ -328,12 +321,6 @@
     <t>При создании задачи указан только Select priority</t>
   </si>
   <si>
-    <t>При создании задачи указан только Desctiption</t>
-  </si>
-  <si>
-    <t>Работа поля "Desctiption"</t>
-  </si>
-  <si>
     <t>При создании задачи поля не заполнены</t>
   </si>
   <si>
@@ -436,15 +423,9 @@
     <t>G_2</t>
   </si>
   <si>
-    <t>Масштабируемость поля "Desctiption"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Поле "Text search" активно </t>
   </si>
   <si>
-    <t>Scroll</t>
-  </si>
-  <si>
     <t>Favicon</t>
   </si>
   <si>
@@ -475,24 +456,12 @@
     <t>G_7.2</t>
   </si>
   <si>
-    <t>G_7.3</t>
-  </si>
-  <si>
-    <t>G_7.4</t>
-  </si>
-  <si>
     <t>Происходит пролистывание текста по вертикали</t>
   </si>
   <si>
     <t>Установлен favicon соответствующий сайту</t>
   </si>
   <si>
-    <t>При наведение курсора на текстовое поле, курсор меняет внешний вид</t>
-  </si>
-  <si>
-    <t>Исходное состояние сохранено</t>
-  </si>
-  <si>
     <t>Поиск используя 1 символ</t>
   </si>
   <si>
@@ -503,9 +472,6 @@
   </si>
   <si>
     <t>Поля в local storage соответсвует с полями в Add Task</t>
-  </si>
-  <si>
-    <t>Опечатки, ошибки</t>
   </si>
   <si>
     <t>G_1.2</t>
@@ -919,30 +885,9 @@
     <t xml:space="preserve"> GIU</t>
   </si>
   <si>
-    <t>Сохранение исходного состояния</t>
-  </si>
-  <si>
-    <t>При открытом разделе "About", обновление страницы</t>
-  </si>
-  <si>
-    <t>При открытом разделе "inQA.by", обновление страницы</t>
-  </si>
-  <si>
-    <t>При открытом разделе "Regulation", обновление страницы</t>
-  </si>
-  <si>
-    <t>При открытом табе "Add Task", обновление страницы</t>
-  </si>
-  <si>
-    <t>Favicon должен соответствовать сайту</t>
-  </si>
-  <si>
     <t>1)Сравнить favicon с сайтом</t>
   </si>
   <si>
-    <t>1)Favicon соответствует сайту</t>
-  </si>
-  <si>
     <t>Favicon:</t>
   </si>
   <si>
@@ -952,118 +897,32 @@
     <t>Поля в local storage соответсвует полям в Add Task</t>
   </si>
   <si>
-    <t>Изображение</t>
-  </si>
-  <si>
-    <t>Страницы сайта должны соответствовать его макетам</t>
-  </si>
-  <si>
-    <t>Текст не должен иметь опечаток, дублирований и ошибок</t>
-  </si>
-  <si>
     <t>1)Сравнить сайт с макетом</t>
   </si>
   <si>
-    <t>1)Сайт соответсвует макету</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Единый формат даты </t>
-  </si>
-  <si>
     <t>1)Сравнить форматы даты</t>
-  </si>
-  <si>
-    <t>Корректная работа scroll по вертикали</t>
   </si>
   <si>
     <t>URL open: http://inqa-challenge.surge.sh/
 Text: https://gsgen.ru/tools/fish-text/</t>
   </si>
   <si>
-    <t>1)Навести курсор на поле ввода текста</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Курсор меняет внешний вид на </t>
-  </si>
-  <si>
     <t>Работа cursor: pointer</t>
   </si>
   <si>
-    <t>1)Навести курсор на поле выпaдающего pop-up</t>
-  </si>
-  <si>
-    <t>При наведение курсора на поле выпaдающего pop-up, курсор меняет внешний вид</t>
-  </si>
-  <si>
-    <t>Сохраняет исходное состояние раздела "About", после обновление страницы</t>
-  </si>
-  <si>
-    <t>Сохраняет исходное состояние раздела "inQA.by", после обновление страницы</t>
-  </si>
-  <si>
-    <t>Сохраняет исходное состояние раздела "Regulation", после обновление страницы</t>
-  </si>
-  <si>
-    <t>Сохраняет исходное состояние таба "Add Task", после обновление страницы</t>
-  </si>
-  <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>1)Кликнуть на раздел "About"
-2)Нажать F5</t>
-  </si>
-  <si>
-    <t>1)Открывается раздел "About"
-2)Страница обновлена, исходное состояние сохранилось</t>
-  </si>
-  <si>
-    <t>1)Кликнуть на раздел "inQA.by"
-2)Нажать F5</t>
-  </si>
-  <si>
-    <t>1)Кликнуть на раздел "Regulation"
-2)Нажать F5</t>
-  </si>
-  <si>
-    <t>1)Открывается раздел "inQA.by"
-2)Страница обновлена, исходное состояние сохранилось</t>
-  </si>
-  <si>
-    <t>1)Открывается раздел "Regulation"
-2)Страница обновлена, исходное состояние сохранилось</t>
   </si>
   <si>
     <t>1)Кликнуть на таб "Add Task"
 2)Нажать F5</t>
   </si>
   <si>
-    <t>1)Открывается таб "Add Task"
-2)Страница обновлена, исходное состояние сохранилось</t>
-  </si>
-  <si>
-    <t>Максимальное</t>
-  </si>
-  <si>
-    <t>Минимальное</t>
-  </si>
-  <si>
-    <t>Поле "Desctiption" масштабируется до 15/15px</t>
-  </si>
-  <si>
-    <t>Поле "Desctiption" масштабируется до 1617/791рх</t>
-  </si>
-  <si>
     <t>G_6.3</t>
   </si>
   <si>
     <t>Работа cursor: nw-resize</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Открываается таба с анкетой создания задачи
-2)Курсор меняет внешний вид на </t>
-  </si>
-  <si>
     <t>Задача не создается</t>
   </si>
   <si>
@@ -1092,27 +951,6 @@
   </si>
   <si>
     <t>Однотипность формата даты</t>
-  </si>
-  <si>
-    <t>1)Формат даты одинаковый</t>
-  </si>
-  <si>
-    <t>Формат даты одинаковый</t>
-  </si>
-  <si>
-    <t>Форматы дат в local storage одинаковые</t>
-  </si>
-  <si>
-    <t>Форматы дат в local storage не одинаковые</t>
-  </si>
-  <si>
-    <t>Изображение на сайте не соответствует макету</t>
-  </si>
-  <si>
-    <t>Опечатка</t>
-  </si>
-  <si>
-    <t>Дублирование текста</t>
   </si>
   <si>
     <t>"Desctiption"</t>
@@ -1142,51 +980,16 @@
 Major баг до 5 баллов</t>
   </si>
   <si>
-    <t>При наведение курсора на resize handle  поля "Desctiption", курсор меняет внешний вид</t>
-  </si>
-  <si>
-    <t>image 1</t>
-  </si>
-  <si>
-    <t>image 2</t>
-  </si>
-  <si>
-    <t>https://prnt.sc/lGKYyzumZunY
-image 2</t>
-  </si>
-  <si>
-    <t>https://prnt.sc/iABhByicw25Q 
-image 1</t>
-  </si>
-  <si>
-    <t>Не сохраняется состояние после обновления страницы</t>
-  </si>
-  <si>
-    <t>Состояние сохранено</t>
-  </si>
-  <si>
-    <t>Состояние не сохранено</t>
-  </si>
-  <si>
     <t>Favicon соответствует сайту</t>
   </si>
   <si>
     <t>Favicon не соответствует сайту</t>
   </si>
   <si>
-    <t>Наведение курсора на текстовое поле,  меняет его внешний вид</t>
-  </si>
-  <si>
-    <t>Наведение курсора на поле выпaдающего pop-up, меняет его внешний вид</t>
-  </si>
-  <si>
     <t>Курсор изменился на</t>
   </si>
   <si>
     <t>Курсор не изменился</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формат даты в названии столбца отличается от формы значений </t>
   </si>
   <si>
     <t>Краткое описание</t>
@@ -1295,12 +1098,6 @@
   </si>
   <si>
     <t>BG_7.2</t>
-  </si>
-  <si>
-    <t>BG_7.3</t>
-  </si>
-  <si>
-    <t>BG_7.4</t>
   </si>
   <si>
     <t>1)Кликнуть на таб "Add Task"
@@ -1362,9 +1159,6 @@
     <t>Масштабируемость поля "Description"</t>
   </si>
   <si>
-    <t>Минимальный размер поля "Description" 15/15рх</t>
-  </si>
-  <si>
     <t xml:space="preserve">1)Кликнуть на таб "Add Task"
 2)Кликнуть курсором на resize handle поля "Description" (удерживая левый клик)
 3)Уменьшить поле "Description" до минимального размера                  </t>
@@ -1373,9 +1167,6 @@
     <t>1)Открываается таба с анкетой создания задачи
 2)Уголок становится активным
 3)Поле "Description" уменьшилось до минимального значения</t>
-  </si>
-  <si>
-    <t>Максимальный размер поля "Description" 1617/791рх</t>
   </si>
   <si>
     <t xml:space="preserve">1)Кликнуть на таб "Add Task"
@@ -1405,10 +1196,6 @@
     <t>Наведение курсора на resize handle поля "Description", меняет его внешний вид</t>
   </si>
   <si>
-    <t>1)Кликнуть на таб "Add Task"
-2)Навести курсор на resize handle поля "Description"</t>
-  </si>
-  <si>
     <t>Раздел "About" не выделен</t>
   </si>
   <si>
@@ -1439,13 +1226,149 @@
   </si>
   <si>
     <t>Выбор приоритета Medium</t>
+  </si>
+  <si>
+    <t>Сохранение состояния</t>
+  </si>
+  <si>
+    <t>Выбранный раздел About/inQA.by/Regulation после обновления страницы остается выделеным</t>
+  </si>
+  <si>
+    <t>Раздел About/inQA.by/Regulation после обновления страницы выделен</t>
+  </si>
+  <si>
+    <t>Выбранная таба "Add Task" после обновления страницы остается выделена</t>
+  </si>
+  <si>
+    <t>Таба "Add Task" после обновления страницы остается выделена</t>
+  </si>
+  <si>
+    <t>Выбранный раздел About/inQA.by/Regulation после обновления страницы не выделен</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на раздел "About/inQA.by/Regulation"
+2)Нажать F5</t>
+  </si>
+  <si>
+    <t>Выбранный раздел выделен</t>
+  </si>
+  <si>
+    <t>Выбранный раздел не выделен</t>
+  </si>
+  <si>
+    <t>Выбранная таба не выделена</t>
+  </si>
+  <si>
+    <t>Выбранная таба выделена</t>
+  </si>
+  <si>
+    <t>Выбранная таба Add Task после обноления страницы не выделена</t>
+  </si>
+  <si>
+    <t>Scroll bar</t>
+  </si>
+  <si>
+    <t>При наведение курсора на resize handle  поля "Description", меняет его внешний вид на cursor: nw-resize</t>
+  </si>
+  <si>
+    <t>nw-resize:</t>
+  </si>
+  <si>
+    <t>pointer:</t>
+  </si>
+  <si>
+    <t>Наведение курсора на dropdown list поля "Select priority" /date pickers, меняет его внешний вид</t>
+  </si>
+  <si>
+    <t>При наведение курсора на list boxes поля "Select priority" /date pickers, меняет его внешний вид на cursor: pointer</t>
+  </si>
+  <si>
+    <t>Наведение курсора на любое текстовое поле, меняет его внешний вид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При наведение курсора на любое текстовое поле, меняет его внешний вид на cursor: text </t>
+  </si>
+  <si>
+    <t>text:</t>
+  </si>
+  <si>
+    <t>Scroll bar в поле "Description" при его манипуляции выполняет scroll текста по вертикали</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favicon во вкладке сайта соответствует его логике и ассоциации </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favicon во вкладке сайта не соответствует его логике и ассоциации </t>
+  </si>
+  <si>
+    <t>Внешний вид сайта соответствует его макету</t>
+  </si>
+  <si>
+    <t>Внешний вид сайта не соответствует его макету</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/lGKYyzumZunY</t>
+  </si>
+  <si>
+    <t>https://prnt.sc/iABhByicw25Q</t>
+  </si>
+  <si>
+    <t>Нету грамматических ошибок, дублирования текста на сайте</t>
+  </si>
+  <si>
+    <t>На сайте отсутствуют грамматические ошибки, дублирования текста</t>
+  </si>
+  <si>
+    <t>Наличие грамматических ошибок на сайте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наличие дублирования текста на сайте </t>
+  </si>
+  <si>
+    <t>GIU URL: http://inqa-challenge.surge.sh/</t>
+  </si>
+  <si>
+    <t>Usability URL: http://inqa-challenge.surge.sh/</t>
+  </si>
+  <si>
+    <t>Functionality URL: http://inqa-challenge.surge.sh/</t>
+  </si>
+  <si>
+    <t>На всём сайте используется одинаковы формат даты</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формат даты не соответсвует dd.mm.yyyy в задачах local storage </t>
+  </si>
+  <si>
+    <t>Формат даты в local storage не соответствует dd.mm.yyyy</t>
+  </si>
+  <si>
+    <t>Формат даты в local storage соответствует dd.mm.yyyy</t>
+  </si>
+  <si>
+    <t>Формат даты соответсвует dd.mm.yyyy во всём сайте</t>
+  </si>
+  <si>
+    <t>Поле "Description" масштабируется до 15/15px</t>
+  </si>
+  <si>
+    <t>Поле "Description" масштабируется до 1617/791рх</t>
+  </si>
+  <si>
+    <t>Поле "Description" в табе "Add Task" масштабируется до 15/15px</t>
+  </si>
+  <si>
+    <t>Поле "Description" в табе "Add Task"  масштабируется до 1617/791рх</t>
+  </si>
+  <si>
+    <t>При создании задачи указан только Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,6 +1434,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1571,10 +1502,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1675,9 +1607,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1708,11 +1637,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1726,6 +1662,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676278</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>963128</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10277478" y="13401675"/>
+          <a:ext cx="286850" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10125075" y="12306300"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>298939</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9915525" y="12830175"/>
+          <a:ext cx="200025" cy="260839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2343,186 +2416,10 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>320951</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Рисунок 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17097375" y="30375225"/>
-          <a:ext cx="314325" cy="273326"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2044945</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>21980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2244970</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>282819</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Рисунок 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15467868" y="31864788"/>
-          <a:ext cx="200025" cy="260839"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2057400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2314575</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Рисунок 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15487650" y="31546800"/>
-          <a:ext cx="257175" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2105025</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>295276</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2362200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>542926</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Рисунок 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15535275" y="34242376"/>
-          <a:ext cx="257175" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2615,7 +2512,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2653,99 +2550,6 @@
         <a:xfrm>
           <a:off x="5981701" y="238125"/>
           <a:ext cx="4194270" cy="5410199"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590551" y="228600"/>
-          <a:ext cx="9134474" cy="3390900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171026</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="571500" y="4019550"/>
-          <a:ext cx="9191625" cy="3390476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3044,21 +2848,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="4" width="40.7109375" customWidth="1"/>
+    <col min="2" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3074,949 +2880,945 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="E4" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
+      <c r="A22" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>99</v>
+        <v>336</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>125</v>
-      </c>
       <c r="D41" s="10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="19" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>172</v>
-      </c>
       <c r="D45" s="19" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="E48" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="B51" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E56" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E57" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="B58" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="B59" s="10" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>152</v>
+        <v>364</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4027,17 +3829,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4090,1883 +3893,1528 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="A2" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>404</v>
+        <v>340</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J10" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>425</v>
+        <v>358</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="J16" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E18" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E20" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E21" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
+      <c r="A22" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="I24" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E25" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="J25" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E27" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="J27" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="J29" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E31" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="J31" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E32" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H32" s="21" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E33" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E35" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E37" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E38" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="G41" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="J41" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G42" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="J42" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="J43" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E44" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H44" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>286</v>
-      </c>
       <c r="J44" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E45" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E46" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+    </row>
+    <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>87</v>
+        <v>133</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>274</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>289</v>
+        <v>41</v>
+      </c>
+      <c r="F48" s="46" t="s">
+        <v>402</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="J48" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J48" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="G49" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="J49" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>133</v>
+      <c r="H49" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="J49" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>331</v>
+        <v>85</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>294</v>
+        <v>381</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="J51" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J52" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="J53" s="32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I54" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="J55" s="34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="J56" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="J57" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="J58" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>62</v>
+        <v>348</v>
+      </c>
+      <c r="J50" s="32" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5982,11 +5430,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6048,841 +5496,769 @@
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>373</v>
+        <v>311</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>377</v>
+        <v>315</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>378</v>
+        <v>316</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>381</v>
+        <v>319</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="H14" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>348</v>
+        <v>270</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>386</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>337</v>
+        <v>390</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>339</v>
+        <v>290</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>288</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I17" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>353</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>390</v>
+        <v>328</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>357</v>
+        <v>296</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>392</v>
+        <v>330</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K14" r:id="rId1"/>
+    <hyperlink ref="J14" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6901,121 +6277,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>360</v>
+      <c r="A2" s="35" t="s">
+        <v>298</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="B3" s="35" t="s">
-        <v>368</v>
+      <c r="A3" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>367</v>
+      <c r="A4" s="35" t="s">
+        <v>305</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>362</v>
+      <c r="A5" s="35" t="s">
+        <v>300</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>371</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>363</v>
+      <c r="A6" s="35" t="s">
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>364</v>
+      <c r="A7" s="35" t="s">
+        <v>302</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>365</v>
+      <c r="A8" s="35" t="s">
+        <v>303</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>369</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B20:P40"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="45"/>
-      <c r="L40" s="45"/>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B40:P40"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/TD_Tarasevich(Task).xlsx
+++ b/TD_Tarasevich(Task).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -515,19 +515,9 @@
     <t>Масштабируемость поля "Description"</t>
   </si>
   <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Кликнуть курсором на resize handle поля "Description" (удерживая левый клик)
-3)Уменьшить поле "Description" до минимального размера                  </t>
-  </si>
-  <si>
     <t>1)Открываается таба с анкетой создания задачи
 2)Уголок становится активным
 3)Поле "Description" уменьшилось до минимального значения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Кликнуть курсором на resize handle поля "Description" (удерживая левый клик)
-3)Растянуть поле "Description" до максимального размера    </t>
   </si>
   <si>
     <t>1)Открываается таба с анкетой создания задачи
@@ -1010,6 +1000,16 @@
     <t>Functionality bug = 4
 Usability bug = 4
 GUI bug = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Кликнуть на resize handle поля "Description" (удерживая левый клик)
+3)Растянуть поле "Description" до максимального размера    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Кликнуть на resize handle поля "Description" (удерживая левый клик)
+3)Уменьшить поле "Description" до минимального размера                  </t>
   </si>
 </sst>
 </file>
@@ -1264,6 +1264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1284,9 +1287,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2184,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -2219,13 +2219,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="A2" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2252,7 +2252,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>37</v>
@@ -2269,7 +2269,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>37</v>
@@ -2286,7 +2286,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>60</v>
@@ -2303,7 +2303,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>60</v>
@@ -2317,10 +2317,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -2331,16 +2331,16 @@
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>35</v>
@@ -2354,7 +2354,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
@@ -2371,7 +2371,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
@@ -2388,7 +2388,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>50</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
@@ -2422,7 +2422,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>88</v>
@@ -2439,7 +2439,7 @@
         <v>91</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
@@ -2456,7 +2456,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>90</v>
@@ -2466,26 +2466,26 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>35</v>
@@ -2493,16 +2493,16 @@
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>44</v>
@@ -2510,16 +2510,16 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>35</v>
@@ -2527,16 +2527,16 @@
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C21" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>35</v>
@@ -2547,13 +2547,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C22" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>35</v>
@@ -2564,13 +2564,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>35</v>
@@ -2581,19 +2581,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2601,13 +2601,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>235</v>
-      </c>
       <c r="D25" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>35</v>
@@ -2618,13 +2618,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>44</v>
@@ -2635,13 +2635,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>44</v>
@@ -2652,26 +2652,26 @@
         <v>65</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="A29" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
@@ -2681,7 +2681,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>26</v>
@@ -2698,10 +2698,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>44</v>
@@ -2715,10 +2715,10 @@
         <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>44</v>
@@ -2732,10 +2732,10 @@
         <v>150</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>35</v>
@@ -2749,10 +2749,10 @@
         <v>150</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>35</v>
@@ -2763,10 +2763,10 @@
         <v>71</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>77</v>
@@ -2783,7 +2783,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>78</v>
@@ -2800,16 +2800,16 @@
         <v>105</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2820,16 +2820,16 @@
         <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2840,16 +2840,16 @@
         <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,13 +2857,13 @@
         <v>75</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>44</v>
@@ -2874,13 +2874,13 @@
         <v>76</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>44</v>
@@ -2902,10 +2902,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,19 +2958,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -3019,13 +3019,13 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>148</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>149</v>
@@ -3034,7 +3034,7 @@
         <v>35</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -3054,13 +3054,13 @@
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>95</v>
@@ -3069,7 +3069,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3089,16 +3089,16 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>44</v>
@@ -3122,7 +3122,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>81</v>
@@ -3131,7 +3131,7 @@
         <v>84</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>44</v>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>30</v>
@@ -3155,13 +3155,13 @@
         <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>96</v>
@@ -3170,7 +3170,7 @@
         <v>35</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3190,7 +3190,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>81</v>
@@ -3222,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>81</v>
@@ -3254,7 +3254,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>81</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>30</v>
@@ -3286,7 +3286,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>81</v>
@@ -3295,7 +3295,7 @@
         <v>86</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>35</v>
@@ -3318,7 +3318,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>81</v>
@@ -3327,7 +3327,7 @@
         <v>89</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>35</v>
@@ -3350,16 +3350,16 @@
         <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>268</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>35</v>
@@ -3382,35 +3382,35 @@
         <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -3420,7 +3420,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -3429,16 +3429,16 @@
         <v>33</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>44</v>
@@ -3452,7 +3452,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -3461,7 +3461,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>81</v>
@@ -3470,28 +3470,28 @@
         <v>84</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>69</v>
       </c>
@@ -3508,22 +3508,22 @@
         <v>33</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H20" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>70</v>
       </c>
@@ -3540,16 +3540,16 @@
         <v>33</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>35</v>
@@ -3563,7 +3563,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>32</v>
@@ -3572,16 +3572,16 @@
         <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>35</v>
@@ -3602,9 +3602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,13 +3684,13 @@
         <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>37</v>
@@ -3723,7 +3723,7 @@
         <v>48</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>81</v>
@@ -3761,7 +3761,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>81</v>
@@ -3799,13 +3799,13 @@
         <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>268</v>
+        <v>272</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>266</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>112</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>56</v>
@@ -3837,27 +3837,27 @@
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>209</v>
-      </c>
       <c r="J6" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>30</v>
@@ -3866,7 +3866,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>33</v>
@@ -3875,19 +3875,19 @@
         <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="27" t="s">
         <v>241</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>243</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>51</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>30</v>
@@ -3904,7 +3904,7 @@
         <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>33</v>
@@ -3913,19 +3913,19 @@
         <v>48</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>51</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>30</v>
@@ -3942,7 +3942,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>33</v>
@@ -3951,7 +3951,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>81</v>
@@ -3960,10 +3960,10 @@
         <v>84</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>51</v>
@@ -3989,7 +3989,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>81</v>
@@ -3998,10 +3998,10 @@
         <v>102</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>51</v>
@@ -4027,7 +4027,7 @@
         <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>81</v>
@@ -4065,7 +4065,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>81</v>
@@ -4103,7 +4103,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>81</v>
@@ -4112,10 +4112,10 @@
         <v>103</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>51</v>
@@ -4141,7 +4141,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>81</v>
@@ -4182,13 +4182,13 @@
         <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>124</v>
@@ -4212,7 +4212,7 @@
         <v>111</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>33</v>
@@ -4221,19 +4221,19 @@
         <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>51</v>
@@ -4250,7 +4250,7 @@
         <v>111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>33</v>
@@ -4259,7 +4259,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>81</v>
@@ -4268,10 +4268,10 @@
         <v>107</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>51</v>
@@ -4347,7 +4347,7 @@
         <v>129</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -4355,7 +4355,7 @@
         <v>130</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/TD_Tarasevich(Task).xlsx
+++ b/TD_Tarasevich(Task).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,6 @@
     <t>"Description"</t>
   </si>
   <si>
-    <t>1)Кликнуть на таб "Add Task"
-2)Сравнить сайт с макетом</t>
-  </si>
-  <si>
     <t>1)Кликнуть на раздел "Regulation"
 2)Сравнить сайт с макетом</t>
   </si>
@@ -451,15 +447,6 @@
   <si>
     <t>Сайт URL: http://inqa-challenge.surge.sh/
 Проект создан для создания и контролирования задач, фильтрации их по названию или дате.</t>
-  </si>
-  <si>
-    <t>При тестировании требований было найдено дублирование пунктов и не корректная формулировка пунктов.
-В процесс тестирования сайта проводилось функциональное и нефункциональное тестирование. 
-К функциональным тестам отнесли модули создания, просмотра, редактирования, удаление, хранения задач (Smoke testing, Functional testing).
-К нефункциональному тестированию отнесли модули логики, интерфейса, навигации сайта (Usability testing, GUI testing).</t>
-  </si>
-  <si>
-    <t>Сдача до 23.59 07.07.2022</t>
   </si>
   <si>
     <t>BF_1.3</t>
@@ -637,12 +624,6 @@
   </si>
   <si>
     <t>На сайте отсутствуют грамматические ошибки, дублирования текста</t>
-  </si>
-  <si>
-    <t>Наличие грамматических ошибок на сайте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наличие дублирования текста на сайте </t>
   </si>
   <si>
     <t>GIU URL: http://inqa-challenge.surge.sh/</t>
@@ -991,25 +972,43 @@
     <t>Задача создается в табе "Add Task" при не заполненных обязательных полях анкеты</t>
   </si>
   <si>
-    <t>Найдено 16 бага из них:
+    <t>Functionality bug = 4
+Usability bug = 4
+GUI bug = 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Кликнуть на resize handle поля "Description" (удерживая левый клик)
+3)Растянуть поле "Description" до максимального размера    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
+2)Кликнуть на resize handle поля "Description" (удерживая левый клик)
+3)Уменьшить поле "Description" до минимального размера                  </t>
+  </si>
+  <si>
+    <t>Слово Description в табе "Add Task" не правильно написано</t>
+  </si>
+  <si>
+    <t>Наличие дублирования текста в разделе "Regulation"</t>
+  </si>
+  <si>
+    <t>При тестировании требований было найдено дублирование пунктов и не корректная формулировка пунктов.
+Найдено 16 бага из них:
 Critical = 2
 Major = 5
 Minor = 9</t>
   </si>
   <si>
-    <t>Functionality bug = 4
-Usability bug = 4
-GUI bug = 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Кликнуть на resize handle поля "Description" (удерживая левый клик)
-3)Растянуть поле "Description" до максимального размера    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1)Кликнуть на таб "Add Task"
-2)Кликнуть на resize handle поля "Description" (удерживая левый клик)
-3)Уменьшить поле "Description" до минимального размера                  </t>
+    <t>В процесс тестирования сайта проводилось функциональное и нефункциональное тестирование. 
+К функциональным тестам отнесли модули создания, просмотра, редактирования, удаление, хранения задач (Smoke testing, Functional testing).
+К нефункциональному тестированию отнесли модули логики, интерфейса, навигации сайта (Usability testing, GUI testing).</t>
+  </si>
+  <si>
+    <t>Сдача в 23:59 07.07.2022</t>
+  </si>
+  <si>
+    <t>1)Кликнуть на таб "Add Task"</t>
   </si>
 </sst>
 </file>
@@ -2220,7 +2219,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -2252,7 +2251,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>37</v>
@@ -2269,7 +2268,7 @@
         <v>38</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>37</v>
@@ -2286,7 +2285,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>60</v>
@@ -2303,7 +2302,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>60</v>
@@ -2317,10 +2316,10 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -2331,16 +2330,16 @@
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E9" s="28" t="s">
         <v>35</v>
@@ -2354,7 +2353,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
@@ -2371,7 +2370,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
@@ -2388,7 +2387,7 @@
         <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>50</v>
@@ -2399,13 +2398,13 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>6</v>
@@ -2422,7 +2421,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>88</v>
@@ -2439,7 +2438,7 @@
         <v>91</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
@@ -2456,7 +2455,7 @@
         <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>90</v>
@@ -2467,7 +2466,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -2476,16 +2475,16 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E18" s="29" t="s">
         <v>35</v>
@@ -2493,16 +2492,16 @@
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>44</v>
@@ -2510,16 +2509,16 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E20" s="29" t="s">
         <v>35</v>
@@ -2527,16 +2526,16 @@
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>35</v>
@@ -2547,13 +2546,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>35</v>
@@ -2564,13 +2563,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>35</v>
@@ -2581,19 +2580,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>35</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2601,13 +2600,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>35</v>
@@ -2618,13 +2617,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>44</v>
@@ -2635,13 +2634,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>44</v>
@@ -2652,13 +2651,13 @@
         <v>65</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>44</v>
@@ -2666,7 +2665,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="40" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B29" s="41"/>
       <c r="C29" s="41"/>
@@ -2681,7 +2680,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>26</v>
@@ -2698,10 +2697,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>44</v>
@@ -2715,10 +2714,10 @@
         <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>44</v>
@@ -2729,13 +2728,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>35</v>
@@ -2746,13 +2745,13 @@
         <v>70</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E34" s="29" t="s">
         <v>35</v>
@@ -2763,10 +2762,10 @@
         <v>71</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>77</v>
@@ -2783,7 +2782,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>78</v>
@@ -2800,16 +2799,16 @@
         <v>105</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2820,16 +2819,16 @@
         <v>68</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E38" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2840,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E39" s="28" t="s">
         <v>35</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,13 +2856,13 @@
         <v>75</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>44</v>
@@ -2874,13 +2873,13 @@
         <v>76</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>44</v>
@@ -2902,7 +2901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
@@ -3019,22 +3018,22 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>35</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -3054,13 +3053,13 @@
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>95</v>
@@ -3069,7 +3068,7 @@
         <v>35</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3089,16 +3088,16 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>83</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>44</v>
@@ -3122,7 +3121,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>81</v>
@@ -3131,7 +3130,7 @@
         <v>84</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>44</v>
@@ -3140,7 +3139,7 @@
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>30</v>
@@ -3155,13 +3154,13 @@
         <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>96</v>
@@ -3170,7 +3169,7 @@
         <v>35</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3190,7 +3189,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>81</v>
@@ -3222,7 +3221,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>81</v>
@@ -3254,7 +3253,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>81</v>
@@ -3271,7 +3270,7 @@
     </row>
     <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>30</v>
@@ -3286,7 +3285,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>81</v>
@@ -3295,7 +3294,7 @@
         <v>86</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>35</v>
@@ -3318,7 +3317,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>81</v>
@@ -3327,7 +3326,7 @@
         <v>89</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J13" s="28" t="s">
         <v>35</v>
@@ -3350,16 +3349,16 @@
         <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J14" s="28" t="s">
         <v>35</v>
@@ -3382,16 +3381,16 @@
         <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>44</v>
@@ -3420,7 +3419,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
@@ -3429,16 +3428,16 @@
         <v>33</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>44</v>
@@ -3452,7 +3451,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -3461,7 +3460,7 @@
         <v>33</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>81</v>
@@ -3470,7 +3469,7 @@
         <v>84</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>44</v>
@@ -3499,7 +3498,7 @@
         <v>106</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
@@ -3508,16 +3507,16 @@
         <v>33</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J20" s="29" t="s">
         <v>35</v>
@@ -3531,7 +3530,7 @@
         <v>106</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>32</v>
@@ -3540,16 +3539,16 @@
         <v>33</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J21" s="29" t="s">
         <v>35</v>
@@ -3563,7 +3562,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>32</v>
@@ -3572,16 +3571,16 @@
         <v>33</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>104</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>35</v>
@@ -3602,9 +3601,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,7 +3665,7 @@
     </row>
     <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>30</v>
@@ -3684,13 +3683,13 @@
         <v>48</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>37</v>
@@ -3705,7 +3704,7 @@
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>30</v>
@@ -3723,7 +3722,7 @@
         <v>48</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>81</v>
@@ -3743,7 +3742,7 @@
     </row>
     <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>30</v>
@@ -3761,7 +3760,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>81</v>
@@ -3781,7 +3780,7 @@
     </row>
     <row r="5" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>30</v>
@@ -3799,13 +3798,13 @@
         <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>112</v>
@@ -3819,7 +3818,7 @@
     </row>
     <row r="6" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>56</v>
@@ -3837,19 +3836,19 @@
         <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>51</v>
@@ -3857,7 +3856,7 @@
     </row>
     <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>30</v>
@@ -3866,7 +3865,7 @@
         <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>33</v>
@@ -3875,19 +3874,19 @@
         <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>51</v>
@@ -3895,7 +3894,7 @@
     </row>
     <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>30</v>
@@ -3904,7 +3903,7 @@
         <v>110</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>33</v>
@@ -3913,19 +3912,19 @@
         <v>48</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>51</v>
@@ -3933,7 +3932,7 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>30</v>
@@ -3942,7 +3941,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>33</v>
@@ -3951,7 +3950,7 @@
         <v>48</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>81</v>
@@ -3960,10 +3959,10 @@
         <v>84</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>51</v>
@@ -3971,7 +3970,7 @@
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>56</v>
@@ -3989,7 +3988,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>81</v>
@@ -3998,10 +3997,10 @@
         <v>102</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>51</v>
@@ -4009,7 +4008,7 @@
     </row>
     <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>56</v>
@@ -4027,13 +4026,13 @@
         <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
       <c r="J11" s="33" t="s">
         <v>115</v>
@@ -4047,7 +4046,7 @@
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>56</v>
@@ -4065,19 +4064,19 @@
         <v>48</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>51</v>
@@ -4085,7 +4084,7 @@
     </row>
     <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>56</v>
@@ -4103,7 +4102,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>81</v>
@@ -4112,10 +4111,10 @@
         <v>103</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>51</v>
@@ -4123,7 +4122,7 @@
     </row>
     <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>30</v>
@@ -4141,7 +4140,7 @@
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>81</v>
@@ -4150,10 +4149,10 @@
         <v>100</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>51</v>
@@ -4164,7 +4163,7 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>56</v>
@@ -4182,19 +4181,19 @@
         <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>51</v>
@@ -4203,7 +4202,7 @@
     </row>
     <row r="16" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>106</v>
@@ -4212,7 +4211,7 @@
         <v>111</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>33</v>
@@ -4221,19 +4220,19 @@
         <v>48</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>81</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>51</v>
@@ -4241,7 +4240,7 @@
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>106</v>
@@ -4250,7 +4249,7 @@
         <v>111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>33</v>
@@ -4259,7 +4258,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>81</v>
@@ -4268,10 +4267,10 @@
         <v>107</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>51</v>
@@ -4293,7 +4292,7 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4304,47 +4303,47 @@
   <sheetData>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>134</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>128</v>
-      </c>
-      <c r="B6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>289</v>
@@ -4352,10 +4351,10 @@
     </row>
     <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
